--- a/artfynd/A 63239-2020.xlsx
+++ b/artfynd/A 63239-2020.xlsx
@@ -1285,10 +1285,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112182926</v>
+        <v>112181511</v>
       </c>
       <c r="B7" t="n">
-        <v>5113</v>
+        <v>89405</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1297,25 +1297,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100526</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1329,10 +1329,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>772356.7609120139</v>
+        <v>772358.531011859</v>
       </c>
       <c r="R7" t="n">
-        <v>7120233.737301462</v>
+        <v>7120173.704397945</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-07</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-07</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1406,10 +1406,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112181511</v>
+        <v>112182926</v>
       </c>
       <c r="B8" t="n">
-        <v>89405</v>
+        <v>5113</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1418,25 +1418,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>100526</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1450,10 +1450,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>772358.531011859</v>
+        <v>772356.7609120139</v>
       </c>
       <c r="R8" t="n">
-        <v>7120173.704397945</v>
+        <v>7120233.737301462</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-09-07</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-09-07</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">

--- a/artfynd/A 63239-2020.xlsx
+++ b/artfynd/A 63239-2020.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112181509</v>
+        <v>112181514</v>
       </c>
       <c r="B2" t="n">
         <v>89405</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>772346.812081366</v>
+        <v>772353</v>
       </c>
       <c r="R2" t="n">
-        <v>7120236.81472306</v>
+        <v>7120281</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -754,22 +754,12 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -801,10 +791,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112181532</v>
+        <v>112181512</v>
       </c>
       <c r="B3" t="n">
-        <v>89351</v>
+        <v>89405</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,21 +807,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>112</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -845,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>772340.1456028121</v>
+        <v>772413</v>
       </c>
       <c r="R3" t="n">
-        <v>7120222.608133457</v>
+        <v>7120316</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -878,19 +868,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -922,10 +902,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112181500</v>
+        <v>112181509</v>
       </c>
       <c r="B4" t="n">
-        <v>89369</v>
+        <v>89405</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -934,25 +914,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -966,10 +946,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>772346.0023281486</v>
+        <v>772347</v>
       </c>
       <c r="R4" t="n">
-        <v>7120285.947938497</v>
+        <v>7120237</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -996,22 +976,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-07</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-07</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1043,7 +1013,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112181514</v>
+        <v>112181511</v>
       </c>
       <c r="B5" t="n">
         <v>89405</v>
@@ -1087,10 +1057,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>772353.0491455358</v>
+        <v>772359</v>
       </c>
       <c r="R5" t="n">
-        <v>7120280.857606414</v>
+        <v>7120174</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1117,22 +1087,12 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-07</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-07</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1164,10 +1124,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112181582</v>
+        <v>112182926</v>
       </c>
       <c r="B6" t="n">
-        <v>81248</v>
+        <v>5113</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1176,25 +1136,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1312</v>
+        <v>100526</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1208,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>772408.5819625497</v>
+        <v>772357</v>
       </c>
       <c r="R6" t="n">
-        <v>7120319.578811813</v>
+        <v>7120234</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1241,19 +1201,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1285,10 +1235,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112181511</v>
+        <v>112181500</v>
       </c>
       <c r="B7" t="n">
-        <v>89405</v>
+        <v>89369</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1297,25 +1247,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1329,10 +1279,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>772358.531011859</v>
+        <v>772346</v>
       </c>
       <c r="R7" t="n">
-        <v>7120173.704397945</v>
+        <v>7120286</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1359,22 +1309,12 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -1406,10 +1346,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112182926</v>
+        <v>112181532</v>
       </c>
       <c r="B8" t="n">
-        <v>5113</v>
+        <v>89351</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1418,25 +1358,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100526</v>
+        <v>112</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1450,10 +1390,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>772356.7609120139</v>
+        <v>772340</v>
       </c>
       <c r="R8" t="n">
-        <v>7120233.737301462</v>
+        <v>7120223</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1483,19 +1423,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
@@ -1527,10 +1457,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112181512</v>
+        <v>112181582</v>
       </c>
       <c r="B9" t="n">
-        <v>89405</v>
+        <v>81248</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1543,21 +1473,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1202</v>
+        <v>1312</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1571,10 +1501,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>772412.8945988119</v>
+        <v>772409</v>
       </c>
       <c r="R9" t="n">
-        <v>7120315.565671118</v>
+        <v>7120320</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1604,19 +1534,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">

--- a/artfynd/A 63239-2020.xlsx
+++ b/artfynd/A 63239-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112181514</v>
+        <v>112182926</v>
       </c>
       <c r="B2" t="n">
-        <v>89405</v>
+        <v>5113</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1202</v>
+        <v>100526</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>772353</v>
+        <v>772357</v>
       </c>
       <c r="R2" t="n">
-        <v>7120281</v>
+        <v>7120234</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -791,10 +791,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112181512</v>
+        <v>112181509</v>
       </c>
       <c r="B3" t="n">
-        <v>89405</v>
+        <v>89539</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>772413</v>
+        <v>772347</v>
       </c>
       <c r="R3" t="n">
-        <v>7120316</v>
+        <v>7120237</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -865,12 +865,12 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-07</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-07</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -902,10 +902,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112181509</v>
+        <v>112181511</v>
       </c>
       <c r="B4" t="n">
-        <v>89405</v>
+        <v>89539</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>772347</v>
+        <v>772359</v>
       </c>
       <c r="R4" t="n">
-        <v>7120237</v>
+        <v>7120174</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112181511</v>
+        <v>112181512</v>
       </c>
       <c r="B5" t="n">
-        <v>89405</v>
+        <v>89539</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1057,10 +1057,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>772359</v>
+        <v>772413</v>
       </c>
       <c r="R5" t="n">
-        <v>7120174</v>
+        <v>7120316</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-09-07</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-09-07</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1124,10 +1124,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112182926</v>
+        <v>112181514</v>
       </c>
       <c r="B6" t="n">
-        <v>5113</v>
+        <v>89539</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1136,25 +1136,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100526</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>772357</v>
+        <v>772353</v>
       </c>
       <c r="R6" t="n">
-        <v>7120234</v>
+        <v>7120281</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1235,10 +1235,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112181500</v>
+        <v>112181532</v>
       </c>
       <c r="B7" t="n">
-        <v>89369</v>
+        <v>89485</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1247,25 +1247,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5447</v>
+        <v>112</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1279,10 +1279,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>772346</v>
+        <v>772340</v>
       </c>
       <c r="R7" t="n">
-        <v>7120286</v>
+        <v>7120223</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1346,10 +1346,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112181532</v>
+        <v>112181582</v>
       </c>
       <c r="B8" t="n">
-        <v>89351</v>
+        <v>81371</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1362,21 +1362,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>112</v>
+        <v>1312</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>772340</v>
+        <v>772409</v>
       </c>
       <c r="R8" t="n">
-        <v>7120223</v>
+        <v>7120320</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1457,10 +1457,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112181582</v>
+        <v>112181500</v>
       </c>
       <c r="B9" t="n">
-        <v>81248</v>
+        <v>89503</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1469,25 +1469,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1312</v>
+        <v>5447</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1501,10 +1501,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>772409</v>
+        <v>772346</v>
       </c>
       <c r="R9" t="n">
-        <v>7120320</v>
+        <v>7120286</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>

--- a/artfynd/A 63239-2020.xlsx
+++ b/artfynd/A 63239-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112182926</v>
+        <v>112181582</v>
       </c>
       <c r="B2" t="n">
-        <v>5113</v>
+        <v>81385</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100526</v>
+        <v>1312</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>772357</v>
+        <v>772409</v>
       </c>
       <c r="R2" t="n">
-        <v>7120234</v>
+        <v>7120320</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -791,10 +791,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112181509</v>
+        <v>112182926</v>
       </c>
       <c r="B3" t="n">
-        <v>89539</v>
+        <v>5113</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -803,25 +803,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>100526</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>772347</v>
+        <v>772357</v>
       </c>
       <c r="R3" t="n">
-        <v>7120237</v>
+        <v>7120234</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -865,12 +865,12 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-09-07</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-09-07</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -902,10 +902,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112181511</v>
+        <v>112181514</v>
       </c>
       <c r="B4" t="n">
-        <v>89539</v>
+        <v>89553</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>772359</v>
+        <v>772353</v>
       </c>
       <c r="R4" t="n">
-        <v>7120174</v>
+        <v>7120281</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -976,12 +976,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2023-09-07</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2023-09-07</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1016,7 +1016,7 @@
         <v>112181512</v>
       </c>
       <c r="B5" t="n">
-        <v>89539</v>
+        <v>89553</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1124,10 +1124,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112181514</v>
+        <v>112181500</v>
       </c>
       <c r="B6" t="n">
-        <v>89539</v>
+        <v>89517</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1136,25 +1136,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>772353</v>
+        <v>772346</v>
       </c>
       <c r="R6" t="n">
-        <v>7120281</v>
+        <v>7120286</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1238,7 +1238,7 @@
         <v>112181532</v>
       </c>
       <c r="B7" t="n">
-        <v>89485</v>
+        <v>89499</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1346,10 +1346,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112181582</v>
+        <v>112181509</v>
       </c>
       <c r="B8" t="n">
-        <v>81371</v>
+        <v>89553</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1362,21 +1362,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1312</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>772409</v>
+        <v>772347</v>
       </c>
       <c r="R8" t="n">
-        <v>7120320</v>
+        <v>7120237</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1420,12 +1420,12 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-07</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-07</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
@@ -1457,10 +1457,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112181500</v>
+        <v>112181511</v>
       </c>
       <c r="B9" t="n">
-        <v>89503</v>
+        <v>89553</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1469,25 +1469,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1501,10 +1501,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>772346</v>
+        <v>772359</v>
       </c>
       <c r="R9" t="n">
-        <v>7120286</v>
+        <v>7120174</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1531,12 +1531,12 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-07</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-07</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">

--- a/artfynd/A 63239-2020.xlsx
+++ b/artfynd/A 63239-2020.xlsx
@@ -791,10 +791,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112182926</v>
+        <v>112181500</v>
       </c>
       <c r="B3" t="n">
-        <v>5113</v>
+        <v>89517</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -807,21 +807,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100526</v>
+        <v>5447</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>772357</v>
+        <v>772346</v>
       </c>
       <c r="R3" t="n">
-        <v>7120234</v>
+        <v>7120286</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112181514</v>
+        <v>112181511</v>
       </c>
       <c r="B4" t="n">
         <v>89553</v>
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>772353</v>
+        <v>772359</v>
       </c>
       <c r="R4" t="n">
-        <v>7120281</v>
+        <v>7120174</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -976,12 +976,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-07</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-07</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1013,7 +1013,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112181512</v>
+        <v>112181514</v>
       </c>
       <c r="B5" t="n">
         <v>89553</v>
@@ -1057,10 +1057,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>772413</v>
+        <v>772353</v>
       </c>
       <c r="R5" t="n">
-        <v>7120316</v>
+        <v>7120281</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1124,10 +1124,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112181500</v>
+        <v>112181532</v>
       </c>
       <c r="B6" t="n">
-        <v>89517</v>
+        <v>89499</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1136,25 +1136,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5447</v>
+        <v>112</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>772346</v>
+        <v>772340</v>
       </c>
       <c r="R6" t="n">
-        <v>7120286</v>
+        <v>7120223</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1235,10 +1235,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112181532</v>
+        <v>112181512</v>
       </c>
       <c r="B7" t="n">
-        <v>89499</v>
+        <v>89553</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1251,21 +1251,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>112</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1279,10 +1279,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>772340</v>
+        <v>772413</v>
       </c>
       <c r="R7" t="n">
-        <v>7120223</v>
+        <v>7120316</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1457,10 +1457,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112181511</v>
+        <v>112182926</v>
       </c>
       <c r="B9" t="n">
-        <v>89553</v>
+        <v>5113</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1469,25 +1469,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1202</v>
+        <v>100526</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1501,10 +1501,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>772359</v>
+        <v>772357</v>
       </c>
       <c r="R9" t="n">
-        <v>7120174</v>
+        <v>7120234</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1531,12 +1531,12 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-09-07</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-09-07</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">

--- a/artfynd/A 63239-2020.xlsx
+++ b/artfynd/A 63239-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112181582</v>
+        <v>112182926</v>
       </c>
       <c r="B2" t="n">
-        <v>81385</v>
+        <v>5113</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1312</v>
+        <v>100526</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>772409</v>
+        <v>772357</v>
       </c>
       <c r="R2" t="n">
-        <v>7120320</v>
+        <v>7120234</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -791,10 +791,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112181500</v>
+        <v>112181509</v>
       </c>
       <c r="B3" t="n">
-        <v>89517</v>
+        <v>89553</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -803,25 +803,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>772346</v>
+        <v>772347</v>
       </c>
       <c r="R3" t="n">
-        <v>7120286</v>
+        <v>7120237</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -865,12 +865,12 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-07</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-07</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -902,10 +902,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112181511</v>
+        <v>112181582</v>
       </c>
       <c r="B4" t="n">
-        <v>89553</v>
+        <v>81385</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,21 +918,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>1312</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>772359</v>
+        <v>772409</v>
       </c>
       <c r="R4" t="n">
-        <v>7120174</v>
+        <v>7120320</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -976,12 +976,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2023-09-07</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2023-09-07</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1235,7 +1235,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112181512</v>
+        <v>112181511</v>
       </c>
       <c r="B7" t="n">
         <v>89553</v>
@@ -1279,10 +1279,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>772413</v>
+        <v>772359</v>
       </c>
       <c r="R7" t="n">
-        <v>7120316</v>
+        <v>7120174</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1309,12 +1309,12 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-07</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-07</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -1346,10 +1346,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112181509</v>
+        <v>112181500</v>
       </c>
       <c r="B8" t="n">
-        <v>89553</v>
+        <v>89517</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1358,25 +1358,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>772347</v>
+        <v>772346</v>
       </c>
       <c r="R8" t="n">
-        <v>7120237</v>
+        <v>7120286</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1420,12 +1420,12 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-09-07</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-09-07</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
@@ -1457,10 +1457,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112182926</v>
+        <v>112181512</v>
       </c>
       <c r="B9" t="n">
-        <v>5113</v>
+        <v>89553</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1469,25 +1469,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100526</v>
+        <v>1202</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1501,10 +1501,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>772357</v>
+        <v>772413</v>
       </c>
       <c r="R9" t="n">
-        <v>7120234</v>
+        <v>7120316</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
